--- a/설계/기획 데이터.xlsx
+++ b/설계/기획 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA322095-01C0-45F7-871B-8756775A9CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F03A31C-6B75-4379-8F6C-EEDA01630FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="9" activeTab="17" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="29505" yWindow="435" windowWidth="28770" windowHeight="14700" firstSheet="11" activeTab="23" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD7D746-9C27-4CBB-8E85-6A6322F1BBD7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1838,6 +1838,15 @@
       <c r="D2">
         <v>20</v>
       </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -1852,6 +1861,15 @@
       <c r="D3">
         <v>15</v>
       </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -1866,6 +1884,15 @@
       <c r="D4">
         <v>10</v>
       </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -1880,6 +1907,15 @@
       <c r="D5">
         <v>20</v>
       </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -1894,6 +1930,15 @@
       <c r="D6">
         <v>22</v>
       </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -1908,6 +1953,15 @@
       <c r="D7">
         <v>24</v>
       </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -1922,6 +1976,15 @@
       <c r="D8">
         <v>26</v>
       </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>800</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -1936,6 +1999,15 @@
       <c r="D9">
         <v>28</v>
       </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -1950,6 +2022,15 @@
       <c r="D10">
         <v>30</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>1200</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -1964,6 +2045,15 @@
       <c r="D11">
         <v>20</v>
       </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -1978,6 +2068,15 @@
       <c r="D12">
         <v>23</v>
       </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>400</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -1992,6 +2091,15 @@
       <c r="D13">
         <v>26</v>
       </c>
+      <c r="E13">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -2006,6 +2114,15 @@
       <c r="D14">
         <v>29</v>
       </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>800</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -2020,6 +2137,15 @@
       <c r="D15">
         <v>32</v>
       </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -2034,8 +2160,17 @@
       <c r="D16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2048,8 +2183,17 @@
       <c r="D17">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>66</v>
+      </c>
+      <c r="G17">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2062,8 +2206,17 @@
       <c r="D18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>68</v>
+      </c>
+      <c r="G18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2075,6 +2228,15 @@
       </c>
       <c r="D19">
         <v>44</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2448,7 @@
   <dimension ref="A16:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2315,7 +2477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2326,10 +2488,13 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2337,144 +2502,285 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D18">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34">
         <v>9</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58DD148-F662-4F25-94EC-9F068CB30221}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/설계/기획 데이터.xlsx
+++ b/설계/기획 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-server\설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F03A31C-6B75-4379-8F6C-EEDA01630FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA322095-01C0-45F7-871B-8756775A9CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29505" yWindow="435" windowWidth="28770" windowHeight="14700" firstSheet="11" activeTab="23" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="9" activeTab="17" xr2:uid="{B204925F-5C8A-4345-9327-98FEB9AA3823}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD7D746-9C27-4CBB-8E85-6A6322F1BBD7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1838,15 +1838,6 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -1861,15 +1852,6 @@
       <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -1884,15 +1866,6 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -1907,15 +1880,6 @@
       <c r="D5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>52</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -1930,15 +1894,6 @@
       <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-      <c r="F6">
-        <v>54</v>
-      </c>
-      <c r="G6">
-        <v>400</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -1953,15 +1908,6 @@
       <c r="D7">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>600</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -1976,15 +1922,6 @@
       <c r="D8">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>58</v>
-      </c>
-      <c r="G8">
-        <v>800</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -1999,15 +1936,6 @@
       <c r="D9">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -2022,15 +1950,6 @@
       <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>1200</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -2045,15 +1964,6 @@
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -2068,15 +1978,6 @@
       <c r="D12">
         <v>23</v>
       </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-      <c r="F12">
-        <v>56</v>
-      </c>
-      <c r="G12">
-        <v>400</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -2091,15 +1992,6 @@
       <c r="D13">
         <v>26</v>
       </c>
-      <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13">
-        <v>58</v>
-      </c>
-      <c r="G13">
-        <v>600</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
@@ -2114,15 +2006,6 @@
       <c r="D14">
         <v>29</v>
       </c>
-      <c r="E14">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>800</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
@@ -2137,15 +2020,6 @@
       <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>62</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
@@ -2160,17 +2034,8 @@
       <c r="D16">
         <v>35</v>
       </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>64</v>
-      </c>
-      <c r="G16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2183,17 +2048,8 @@
       <c r="D17">
         <v>38</v>
       </c>
-      <c r="E17">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>66</v>
-      </c>
-      <c r="G17">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2206,17 +2062,8 @@
       <c r="D18">
         <v>41</v>
       </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>68</v>
-      </c>
-      <c r="G18">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2228,15 +2075,6 @@
       </c>
       <c r="D19">
         <v>44</v>
-      </c>
-      <c r="E19">
-        <v>14</v>
-      </c>
-      <c r="F19">
-        <v>70</v>
-      </c>
-      <c r="G19">
-        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2286,7 @@
   <dimension ref="A16:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2477,7 +2315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2488,13 +2326,10 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2502,16 +2337,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>52</v>
-      </c>
-      <c r="E18">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2519,268 +2351,130 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20">
-        <v>52</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>54</v>
-      </c>
-      <c r="E21">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <v>56</v>
-      </c>
-      <c r="E22">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>58</v>
-      </c>
-      <c r="E23">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>62</v>
-      </c>
-      <c r="E25">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>54</v>
-      </c>
-      <c r="E26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>28</v>
-      </c>
-      <c r="D27">
-        <v>56</v>
-      </c>
-      <c r="E27">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>58</v>
-      </c>
-      <c r="E28">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>62</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>64</v>
-      </c>
-      <c r="E31">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32">
-        <v>66</v>
-      </c>
-      <c r="E32">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
-      <c r="C33">
-        <v>16</v>
-      </c>
-      <c r="D33">
-        <v>68</v>
-      </c>
-      <c r="E33">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34">
         <v>9</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-      <c r="D34">
-        <v>70</v>
-      </c>
-      <c r="E34">
-        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58DD148-F662-4F25-94EC-9F068CB30221}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
